--- a/Calc/Binary_calc.xlsx
+++ b/Calc/Binary_calc.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,13 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,452 +360,902 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>_xlfn.BASE(A1:A50,2)</f>
-        <v>110001</v>
+        <v>110010</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="shared" ref="B2:B50" si="0">_xlfn.BASE(A2:A51,2)</f>
-        <v>110111</v>
+        <v>110101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>111101</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000011</v>
+        <v>111011</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1001001</v>
+        <v>111111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1001110</v>
+        <v>1000010</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010011</v>
+        <v>1000101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010111</v>
+        <v>1000111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011010</v>
+        <v>1001010</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011101</v>
+        <v>1001101</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100001</v>
+        <v>1010010</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100010</v>
+        <v>1010101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100010</v>
+        <v>1010111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100001</v>
+        <v>1011001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1100000</v>
+        <v>1011011</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011101</v>
+        <v>1011100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011010</v>
+        <v>1011110</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010111</v>
+        <v>1011111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1010011</v>
+        <v>1100001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1001110</v>
+        <v>1100010</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1001001</v>
+        <v>1100011</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000011</v>
+        <v>1100011</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>111101</v>
+        <v>1100100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>110111</v>
+        <v>1100100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>110001</v>
+        <v>1100100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>101011</v>
+        <v>1100100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100101</v>
+        <v>1100011</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11111</v>
+        <v>1100011</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11001</v>
+        <v>1100010</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10100</v>
+        <v>1100001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1111</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011</v>
+        <v>1011111</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1011101</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>1011100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1011010</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1011000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1010110</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1010011</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1010001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1001110</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>1001100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1001001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1011</v>
+        <v>1000110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1111</v>
+        <v>1000011</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>10100</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11001</v>
+        <v>111101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>11111</v>
+        <v>111010</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>100101</v>
+        <v>110111</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>101011</v>
+        <f>_xlfn.BASE(A50:A99,2)</f>
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" ref="B51:B100" si="1">_xlfn.BASE(A51:A100,2)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>36</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>33</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>27</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>20</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>26</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>29</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>31</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>34</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>37</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>41</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>47</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>50</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110010</v>
       </c>
     </row>
   </sheetData>

--- a/Calc/Binary_calc.xlsx
+++ b/Calc/Binary_calc.xlsx
@@ -346,19 +346,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>50</v>
       </c>
@@ -366,17 +369,45 @@
         <f>_xlfn.BASE(A1:A50,2)</f>
         <v>110010</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>_xlfn.BASE(D1:D50,2)</f>
+        <v>111</v>
+      </c>
+      <c r="G1" s="2">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>_xlfn.BASE(G1:G50,2)</f>
+        <v>1011101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>53</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B50" si="0">_xlfn.BASE(A2:A51,2)</f>
+        <f t="shared" ref="B2:B49" si="0">_xlfn.BASE(A2:A51,2)</f>
         <v>110101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>_xlfn.BASE(D2:D51,2)</f>
+        <v>101</v>
+      </c>
+      <c r="G2" s="1">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H65" si="1">_xlfn.BASE(G2:G51,2)</f>
+        <v>1011100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>56</v>
       </c>
@@ -384,8 +415,22 @@
         <f t="shared" si="0"/>
         <v>111000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E66" si="2">_xlfn.BASE(D3:D52,2)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -393,8 +438,22 @@
         <f t="shared" si="0"/>
         <v>111011</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -402,8 +461,22 @@
         <f t="shared" si="0"/>
         <v>111111</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>66</v>
       </c>
@@ -411,8 +484,22 @@
         <f t="shared" si="0"/>
         <v>1000010</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>83</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>69</v>
       </c>
@@ -420,8 +507,22 @@
         <f t="shared" si="0"/>
         <v>1000101</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>71</v>
       </c>
@@ -429,8 +530,22 @@
         <f t="shared" si="0"/>
         <v>1000111</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -438,8 +553,22 @@
         <f t="shared" si="0"/>
         <v>1001010</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>77</v>
       </c>
@@ -447,8 +576,22 @@
         <f t="shared" si="0"/>
         <v>1001101</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80</v>
       </c>
@@ -456,8 +599,22 @@
         <f t="shared" si="0"/>
         <v>1010000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>82</v>
       </c>
@@ -465,8 +622,22 @@
         <f t="shared" si="0"/>
         <v>1010010</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>85</v>
       </c>
@@ -474,8 +645,22 @@
         <f t="shared" si="0"/>
         <v>1010101</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>87</v>
       </c>
@@ -483,8 +668,22 @@
         <f t="shared" si="0"/>
         <v>1010111</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>89</v>
       </c>
@@ -492,8 +691,22 @@
         <f t="shared" si="0"/>
         <v>1011001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>91</v>
       </c>
@@ -501,8 +714,22 @@
         <f t="shared" si="0"/>
         <v>1011011</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G16" s="1">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>92</v>
       </c>
@@ -510,8 +737,22 @@
         <f t="shared" si="0"/>
         <v>1011100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="G17" s="1">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>94</v>
       </c>
@@ -519,8 +760,22 @@
         <f t="shared" si="0"/>
         <v>1011110</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>95</v>
       </c>
@@ -528,8 +783,22 @@
         <f t="shared" si="0"/>
         <v>1011111</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>97</v>
       </c>
@@ -537,8 +806,22 @@
         <f t="shared" si="0"/>
         <v>1100001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>98</v>
       </c>
@@ -546,8 +829,22 @@
         <f t="shared" si="0"/>
         <v>1100010</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="G21" s="1">
+        <v>39</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>99</v>
       </c>
@@ -555,8 +852,22 @@
         <f t="shared" si="0"/>
         <v>1100011</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="G22" s="1">
+        <v>36</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>99</v>
       </c>
@@ -564,8 +875,22 @@
         <f t="shared" si="0"/>
         <v>1100011</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10010</v>
+      </c>
+      <c r="G23" s="1">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>100</v>
       </c>
@@ -573,8 +898,22 @@
         <f t="shared" si="0"/>
         <v>1100100</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>100</v>
       </c>
@@ -582,8 +921,22 @@
         <f t="shared" si="0"/>
         <v>1100100</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10111</v>
+      </c>
+      <c r="G25" s="1">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>100</v>
       </c>
@@ -591,8 +944,22 @@
         <f t="shared" si="0"/>
         <v>1100100</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11010</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>100</v>
       </c>
@@ -600,8 +967,22 @@
         <f t="shared" si="0"/>
         <v>1100100</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>99</v>
       </c>
@@ -609,8 +990,22 @@
         <f t="shared" si="0"/>
         <v>1100011</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>11111</v>
+      </c>
+      <c r="G28" s="1">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>99</v>
       </c>
@@ -618,8 +1013,22 @@
         <f t="shared" si="0"/>
         <v>1100011</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>100010</v>
+      </c>
+      <c r="G29" s="1">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>98</v>
       </c>
@@ -627,8 +1036,22 @@
         <f t="shared" si="0"/>
         <v>1100010</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>100101</v>
+      </c>
+      <c r="G30" s="1">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>97</v>
       </c>
@@ -636,8 +1059,22 @@
         <f t="shared" si="0"/>
         <v>1100001</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>101001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>96</v>
       </c>
@@ -645,8 +1082,22 @@
         <f t="shared" si="0"/>
         <v>1100000</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>101100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>95</v>
       </c>
@@ -654,8 +1105,22 @@
         <f t="shared" si="0"/>
         <v>1011111</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>101111</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>93</v>
       </c>
@@ -663,8 +1128,22 @@
         <f t="shared" si="0"/>
         <v>1011101</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>110010</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>92</v>
       </c>
@@ -672,8 +1151,22 @@
         <f t="shared" si="0"/>
         <v>1011100</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>53</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>110101</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>90</v>
       </c>
@@ -681,8 +1174,22 @@
         <f t="shared" si="0"/>
         <v>1011010</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>111000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>88</v>
       </c>
@@ -690,8 +1197,22 @@
         <f t="shared" si="0"/>
         <v>1011000</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <v>59</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>111011</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>86</v>
       </c>
@@ -699,8 +1220,22 @@
         <f t="shared" si="0"/>
         <v>1010110</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>111111</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>83</v>
       </c>
@@ -708,8 +1243,22 @@
         <f t="shared" si="0"/>
         <v>1010011</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>66</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000010</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>81</v>
       </c>
@@ -717,8 +1266,22 @@
         <f t="shared" si="0"/>
         <v>1010001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>69</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000101</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -726,8 +1289,22 @@
         <f t="shared" si="0"/>
         <v>1001110</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1000111</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>76</v>
       </c>
@@ -735,8 +1312,22 @@
         <f t="shared" si="0"/>
         <v>1001100</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1001010</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>73</v>
       </c>
@@ -744,8 +1335,22 @@
         <f t="shared" si="0"/>
         <v>1001001</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1001101</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>70</v>
       </c>
@@ -753,8 +1358,22 @@
         <f t="shared" si="0"/>
         <v>1000110</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1010000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>67</v>
       </c>
@@ -762,8 +1381,22 @@
         <f t="shared" si="0"/>
         <v>1000011</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>82</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1010010</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>64</v>
       </c>
@@ -771,8 +1404,22 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1010101</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>61</v>
       </c>
@@ -780,8 +1427,22 @@
         <f t="shared" si="0"/>
         <v>111101</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
+        <v>87</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1010111</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>58</v>
       </c>
@@ -789,8 +1450,22 @@
         <f t="shared" si="0"/>
         <v>111010</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <v>89</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>55</v>
       </c>
@@ -798,8 +1473,22 @@
         <f t="shared" si="0"/>
         <v>110111</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011011</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -807,455 +1496,1169 @@
         <f>_xlfn.BASE(A50:A99,2)</f>
         <v>110100</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="1">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011100</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" ref="B51:B100" si="1">_xlfn.BASE(A51:A100,2)</f>
+        <f t="shared" ref="B51:B100" si="3">_xlfn.BASE(A51:A100,2)</f>
         <v>110000</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="1">
+        <v>94</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011110</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>95</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011111</v>
+      </c>
+      <c r="G52" s="1">
+        <v>9</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101010</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>97</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>39</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100111</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>98</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100010</v>
+      </c>
+      <c r="G54" s="1">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>36</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100100</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100011</v>
+      </c>
+      <c r="G55" s="1">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>33</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100001</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100011</v>
+      </c>
+      <c r="G56" s="1">
+        <v>18</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>30</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11110</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100100</v>
+      </c>
+      <c r="G57" s="1">
+        <v>20</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>27</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11011</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100100</v>
+      </c>
+      <c r="G58" s="1">
+        <v>23</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>24</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100100</v>
+      </c>
+      <c r="G59" s="1">
+        <v>26</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>22</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10110</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100100</v>
+      </c>
+      <c r="G60" s="1">
+        <v>29</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>19</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10011</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>99</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100011</v>
+      </c>
+      <c r="G61" s="1">
+        <v>31</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>17</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>99</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100011</v>
+      </c>
+      <c r="G62" s="1">
+        <v>34</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>14</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>98</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100010</v>
+      </c>
+      <c r="G63" s="1">
+        <v>37</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>100101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>12</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100001</v>
+      </c>
+      <c r="G64" s="1">
+        <v>41</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1010</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>96</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1100000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>44</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>101100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <v>95</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1011111</v>
+      </c>
+      <c r="G66" s="1">
+        <v>47</v>
+      </c>
+      <c r="H66" s="1" t="str">
+        <f t="shared" ref="H66:H100" si="4">_xlfn.BASE(G66:G115,2)</f>
+        <v>101111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>7</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <v>93</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" ref="E67:E100" si="5">_xlfn.BASE(D67:D116,2)</f>
+        <v>1011101</v>
+      </c>
+      <c r="G67" s="1">
+        <v>50</v>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>110010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>5</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1011100</v>
+      </c>
+      <c r="G68" s="1">
+        <v>53</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>110101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>4</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <v>90</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1011010</v>
+      </c>
+      <c r="G69" s="1">
+        <v>56</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
+        <v>88</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1011000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>59</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>111011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <v>86</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1010110</v>
+      </c>
+      <c r="G71" s="1">
+        <v>63</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
+        <v>83</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1010011</v>
+      </c>
+      <c r="G72" s="1">
+        <v>66</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1000010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" s="1">
+        <v>81</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1010001</v>
+      </c>
+      <c r="G73" s="1">
+        <v>69</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1000101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1001110</v>
+      </c>
+      <c r="G74" s="1">
+        <v>71</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1000111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="1">
+        <v>76</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1001100</v>
+      </c>
+      <c r="G75" s="1">
+        <v>74</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1001010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1001001</v>
+      </c>
+      <c r="G76" s="1">
+        <v>77</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1001101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1000110</v>
+      </c>
+      <c r="G77" s="1">
+        <v>80</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
+        <v>67</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1000011</v>
+      </c>
+      <c r="G78" s="1">
+        <v>82</v>
+      </c>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1010010</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
+        <v>64</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="G79" s="1">
+        <v>85</v>
+      </c>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1010101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <v>61</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>111101</v>
+      </c>
+      <c r="G80" s="1">
+        <v>87</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1010111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
+        <v>58</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>111010</v>
+      </c>
+      <c r="G81" s="1">
+        <v>89</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
+        <v>55</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>110111</v>
+      </c>
+      <c r="G82" s="1">
+        <v>91</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>6</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <v>52</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>110100</v>
+      </c>
+      <c r="G83" s="1">
+        <v>92</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>8</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <v>48</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>110000</v>
+      </c>
+      <c r="G84" s="1">
+        <v>94</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>9</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1001</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <v>45</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>101101</v>
+      </c>
+      <c r="G85" s="1">
+        <v>95</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>11</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1011</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <v>42</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>101010</v>
+      </c>
+      <c r="G86" s="1">
+        <v>97</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>13</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1101</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <v>39</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>100111</v>
+      </c>
+      <c r="G87" s="1">
+        <v>98</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>15</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1111</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>36</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>100100</v>
+      </c>
+      <c r="G88" s="1">
+        <v>99</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>18</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10010</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>100001</v>
+      </c>
+      <c r="G89" s="1">
+        <v>99</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>20</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10100</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>30</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11110</v>
+      </c>
+      <c r="G90" s="1">
+        <v>100</v>
+      </c>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>23</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10111</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>27</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11011</v>
+      </c>
+      <c r="G91" s="1">
+        <v>100</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>26</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11010</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <v>24</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11000</v>
+      </c>
+      <c r="G92" s="1">
+        <v>100</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11101</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <v>22</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10110</v>
+      </c>
+      <c r="G93" s="1">
+        <v>100</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>31</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11111</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94" s="1">
+        <v>19</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10011</v>
+      </c>
+      <c r="G94" s="1">
+        <v>99</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>34</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100010</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <v>17</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10001</v>
+      </c>
+      <c r="G95" s="1">
+        <v>99</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>37</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100101</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D96" s="1">
+        <v>14</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1110</v>
+      </c>
+      <c r="G96" s="1">
+        <v>98</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101001</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1100</v>
+      </c>
+      <c r="G97" s="1">
+        <v>97</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101100</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D98" s="1">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1010</v>
+      </c>
+      <c r="G98" s="1">
+        <v>96</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>47</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101111</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99" s="1">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="G99" s="1">
+        <v>95</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>50</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110010</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="G100" s="1">
+        <v>93</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1011101</v>
       </c>
     </row>
   </sheetData>
